--- a/12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -1003,11 +1003,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>5:15 am meet for Carlie and Trevor</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1067,9 +1063,21 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -1118,17 +1126,17 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Santa Fe available, Equip</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1175,17 +1183,18 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>Red Camry stools,
+Trainer</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1232,21 +1241,15 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Red Camry stools,
-Trainer,
-w/ Trevor</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
@@ -1315,15 +1318,19 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Altima Stools</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
@@ -1388,19 +1395,15 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Altima Stools</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
@@ -1462,12 +1465,12 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1527,12 +1530,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1596,12 +1599,12 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1670,15 +1673,19 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
@@ -1731,19 +1738,15 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
@@ -1797,12 +1800,12 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1862,15 +1865,19 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
@@ -1925,21 +1932,9 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
@@ -1986,21 +1981,9 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
@@ -2130,7 +2113,11 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2165,7 +2152,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2214,7 +2201,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2276,7 +2263,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>O'CONNELL'S LAKESIDE LIQUOR, MONONA</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2337,7 +2324,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>O'CONNELL'S LAKESIDE LIQUOR, MONONA</t>
+          <t>6325 MONONA DRIVE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2390,7 +2377,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>6325 MONONA DRIVE</t>
+          <t>https://goo.gl/maps/B3TANgvBHum</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2443,7 +2430,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/B3TANgvBHum</t>
+          <t>APPROX 10:00/10:30 AM START</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2500,7 +2487,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>APPROX 10:00/10:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2545,7 +2532,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>REDLINE MOBIL, DEFOREST</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2586,7 +2573,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>REDLINE MOBIL, DEFOREST</t>
+          <t>937 E HOLUM ST</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2643,7 +2630,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>937 E HOLUM ST</t>
+          <t>https://goo.gl/maps/uTZdgEKHTh12</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2694,11 +2681,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/uTZdgEKHTh12</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2738,9 +2721,21 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -2781,17 +2776,18 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2834,20 +2830,15 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
@@ -2882,16 +2873,8 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>

--- a/12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,11 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -517,12 +521,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -538,118 +558,278 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -3811,7 +3991,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Trainer</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -3984,9 +4164,21 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Trey</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>@ Store, New, 1st Day, work w/ Katie</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4043,11 +4235,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -4078,7 +4266,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4103,6 +4291,39 @@
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3482,11 +3482,7 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
@@ -3581,15 +3577,10 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>1st Day,
-work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
@@ -3635,7 +3626,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3680,10 +3671,14 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
@@ -3737,7 +3732,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3794,7 +3789,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3855,7 +3850,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3920,12 +3915,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Trainer</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -3986,12 +3981,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>@ Store, Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -4048,7 +4043,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4089,7 +4084,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4130,12 +4125,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Trey</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, New, 1st Day, work w/ Katie</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -4164,21 +4159,9 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Trey</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>@ Store, New, 1st Day, work w/ Katie</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4235,7 +4218,11 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -4266,7 +4253,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4291,39 +4278,6 @@
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
